--- a/test-cases/Test-Cases.xlsx
+++ b/test-cases/Test-Cases.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antonovsky001/Documents/GitHub/Antonovsky001/Test-Suites and Test-Cases/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antonovsky001/Documents/GitHub/Antonovsky001/test-cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA7056A2-FA51-CB4B-A6E5-7D991A817452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{24DC48CA-ED5A-BE4B-A4F2-DAA5D4CB0142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14200" yWindow="640" windowWidth="14600" windowHeight="17360" xr2:uid="{F81B3958-A863-1D42-8148-DA4BC2255A3D}"/>
+    <workbookView xWindow="13440" yWindow="1080" windowWidth="14600" windowHeight="17360" xr2:uid="{F81B3958-A863-1D42-8148-DA4BC2255A3D}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="66">
   <si>
     <t>Ссылка на баг-репорт</t>
   </si>
@@ -116,9 +116,6 @@
 «Отсутствует интернет-соединение» если тапнуть по  кнопке "все"</t>
   </si>
   <si>
-    <t>Откроется окно "Нет доступа к интернету"</t>
-  </si>
-  <si>
     <t>Отключить интернет соединение на устройстве</t>
   </si>
   <si>
@@ -153,30 +150,18 @@
 «Отсутствует интернет-соединение» не пропадает, если тапнуть по внешней области окна</t>
   </si>
   <si>
-    <t>На экране ничего не поменяется и окно не закроется</t>
-  </si>
-  <si>
     <t>https://antonovsky001.youtrack.cloud/issue/T1-76</t>
   </si>
   <si>
     <t>Тапнуть на область возле окна "Нет доступа к интернету"</t>
   </si>
   <si>
-    <t>Сообщение «Отсутствует интернет-соединение» пропадает по тапу  по кнопке "ок"</t>
-  </si>
-  <si>
     <t>Окно "Нет интернет соединения" закроется</t>
-  </si>
-  <si>
-    <t>В появившемся окне "Отсутсвует интернет соединение" тапнуть на кнопку "Ок"</t>
   </si>
   <si>
     <t>Если интернета всё ещё нет, процесс повторяется: тап по
 любой активной зоне ведёт на всплывающее уведомление
 «Отсутствует интернет-соединение».</t>
-  </si>
-  <si>
-    <t>Появится сообщение "Отсутсвует нтернет соединение"</t>
   </si>
   <si>
     <t xml:space="preserve">Приложение работает стабильно </t>
@@ -204,45 +189,20 @@
 предупредите поддержку: 0101»</t>
   </si>
   <si>
-    <t xml:space="preserve">Откроентся сообщение "Уведомление содержит такой текст: «2 часа до конца заказа. Заказ «ул. московская дом 1» нужно выполнить до времени N . Если не успеваете,
-предупредите поддержку: 0101»"
-</t>
-  </si>
-  <si>
     <t>https://antonovsky001.youtrack.cloud/issue/T1-77</t>
   </si>
   <si>
     <t>Принятие заказа в приложении курьера</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Сделать заказ
-2. Открыть приложение курьера на мобильном устройстве
-3. Авторизоваться под курьером у которого нет заказоваказ </t>
-  </si>
-  <si>
     <t>Версия приложения:2.0, Эмулятор Android Studio, OS: Android 9.0,
 с разрешением экрана 2960x1440 и диагональю 5.9</t>
-  </si>
-  <si>
-    <t>В прилоэении курьера во вкладке мои появляется новый заказ, который был только что принят.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Откроентся вкладка "мои"
-</t>
   </si>
   <si>
     <t>1.Создать заказ с датой на сегодняшнее число  
 2.Создать заказ
 3. Открыть мобильное приложение
 4. Авторизоваться под курьером у которого нет заказов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"1.Создать заказ с датой на сегодняшнее число 
-2.Создать заказ
-2.Поменять время на телефоне на 21:59
-4. Открыть мобильное приложение
-5. Авторизоваться под курьером у которого нет заказов"
-</t>
   </si>
   <si>
     <t>1.Создать заказ с датой на сегодняшнее число 
@@ -265,12 +225,55 @@
 4. Открыть мобильное приложение
 5. Авторизоваться под курьером у которого нет заказов</t>
   </si>
+  <si>
+    <t>1. Сделать заказ
+2. Открыть приложение курьера на мобильном устройстве
+3. Авторизоваться под курьером у которого нет заказов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Создать заказ с датой на сегодняшнее число 
+2.Создать заказ
+2.Поменять время на телефоне на 21:59
+4. Открыть мобильное приложение
+5. Авторизоваться под курьером у которого нет заказов
+</t>
+  </si>
+  <si>
+    <t>В приложении курьера во вкладке мои появляется новый заказ, который был только что принят.</t>
+  </si>
+  <si>
+    <t>При появлении уведомления "Хотите принять заказ?", нажать "Да"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Откроется вкладка "мои"
+</t>
+  </si>
+  <si>
+    <t>Появится уведомление "Нет доступа к интернету"</t>
+  </si>
+  <si>
+    <t>Продолжает отображаться окно "Нет доступа к интернету"</t>
+  </si>
+  <si>
+    <t>Сообщение «Отсутствует интернет-соединение» пропадает по тапу  по кнопке "ok"</t>
+  </si>
+  <si>
+    <t>В появившемся окне "Отсутствует интернет соединение" тапнуть на кнопку "Ок"</t>
+  </si>
+  <si>
+    <t>Появится сообщение "Отсутствует интернет  соединение"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Откроется сообщение "Уведомление содержит такой текст: «2 часа до конца заказа. Заказ «ул. московская дом 1» нужно выполнить до времени N. Если не успеваете,
+предупредите поддержку: 0101»"
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -403,6 +406,13 @@
       <name val="Calibri (Основной текст)"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Основной текст)"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -502,7 +512,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -672,14 +682,20 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -998,11 +1014,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3065EC39-14C0-F34E-ADCA-FF91A2A71AC4}">
   <dimension ref="A1:Z199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="94" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView tabSelected="1" topLeftCell="G65" zoomScale="233" workbookViewId="0">
+      <selection activeCell="I65" sqref="I65:I67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="39" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.33203125" style="7" customWidth="1"/>
     <col min="2" max="2" width="40.6640625" style="30" customWidth="1"/>
@@ -1017,7 +1033,7 @@
     <col min="11" max="16384" width="12.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="53" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" s="53" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="50" t="s">
         <v>3</v>
       </c>
@@ -1065,15 +1081,15 @@
       <c r="Y1" s="52"/>
       <c r="Z1" s="52"/>
     </row>
-    <row r="2" spans="1:26" ht="59" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="33">
         <v>1</v>
       </c>
       <c r="B2" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="42" t="s">
         <v>55</v>
-      </c>
-      <c r="C2" s="42" t="s">
-        <v>56</v>
       </c>
       <c r="D2" s="36">
         <v>1</v>
@@ -1082,10 +1098,10 @@
         <v>13</v>
       </c>
       <c r="F2" s="35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="54" t="s">
@@ -1109,7 +1125,7 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" spans="1:26" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
       <c r="B3" s="39"/>
       <c r="C3" s="43"/>
@@ -1141,7 +1157,7 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
-    <row r="4" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>2</v>
       </c>
@@ -1149,7 +1165,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D4" s="13">
         <v>1</v>
@@ -1161,7 +1177,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="40" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="31" t="s">
@@ -1185,7 +1201,7 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
     </row>
-    <row r="5" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
       <c r="B5" s="40"/>
       <c r="C5" s="44"/>
@@ -1193,7 +1209,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="48" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="F5" s="44"/>
       <c r="G5" s="44"/>
@@ -1217,7 +1233,7 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
     </row>
-    <row r="6" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="B6" s="40"/>
       <c r="C6" s="44"/>
@@ -1249,15 +1265,15 @@
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
     </row>
-    <row r="7" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" s="41" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="41" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D7" s="19">
         <v>1</v>
@@ -1269,7 +1285,7 @@
         <v>18</v>
       </c>
       <c r="G7" s="41" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="H7" s="18"/>
       <c r="I7" s="20" t="s">
@@ -1295,7 +1311,7 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="22"/>
       <c r="B8" s="41"/>
       <c r="C8" s="45"/>
@@ -1327,7 +1343,7 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="22"/>
       <c r="B9" s="41"/>
       <c r="C9" s="45"/>
@@ -1359,15 +1375,15 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10" s="40" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="44" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D10" s="13">
         <v>1</v>
@@ -1379,7 +1395,7 @@
         <v>21</v>
       </c>
       <c r="G10" s="40" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="H10" s="15"/>
       <c r="I10" s="25" t="s">
@@ -1405,7 +1421,7 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
     </row>
-    <row r="11" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14"/>
       <c r="B11" s="40"/>
       <c r="C11" s="44"/>
@@ -1437,7 +1453,7 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14"/>
       <c r="B12" s="40"/>
       <c r="C12" s="44"/>
@@ -1469,7 +1485,7 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14"/>
       <c r="B13" s="40"/>
       <c r="C13" s="44"/>
@@ -1501,15 +1517,15 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
-    <row r="14" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B14" s="41" t="s">
         <v>24</v>
       </c>
       <c r="C14" s="45" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D14" s="19">
         <v>1</v>
@@ -1521,10 +1537,10 @@
         <v>59</v>
       </c>
       <c r="G14" s="41" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="H14" s="23"/>
-      <c r="I14" s="20" t="s">
+      <c r="I14" s="61" t="s">
         <v>2</v>
       </c>
       <c r="J14" s="21" t="s">
@@ -1547,7 +1563,7 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
     </row>
-    <row r="15" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="18"/>
       <c r="B15" s="41"/>
       <c r="C15" s="45"/>
@@ -1579,7 +1595,7 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="18"/>
       <c r="B16" s="41"/>
       <c r="C16" s="45"/>
@@ -1611,7 +1627,7 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" spans="1:26" ht="79" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="18"/>
       <c r="B17" s="41"/>
       <c r="C17" s="45"/>
@@ -1643,15 +1659,15 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B18" s="40" t="s">
         <v>25</v>
       </c>
       <c r="C18" s="44" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D18" s="13">
         <v>1</v>
@@ -1660,10 +1676,10 @@
         <v>13</v>
       </c>
       <c r="F18" s="40" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="G18" s="40" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="H18" s="12"/>
       <c r="I18" s="31" t="s">
@@ -1687,7 +1703,7 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="12"/>
       <c r="B19" s="40"/>
       <c r="C19" s="44"/>
@@ -1719,7 +1735,7 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
-    <row r="20" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="12"/>
       <c r="B20" s="40"/>
       <c r="C20" s="44"/>
@@ -1751,7 +1767,7 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="12"/>
       <c r="B21" s="40"/>
       <c r="C21" s="44"/>
@@ -1759,7 +1775,7 @@
         <v>4</v>
       </c>
       <c r="E21" s="48" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F21" s="40"/>
       <c r="G21" s="40"/>
@@ -1783,7 +1799,7 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12"/>
       <c r="B22" s="40"/>
       <c r="C22" s="44"/>
@@ -1791,7 +1807,7 @@
         <v>5</v>
       </c>
       <c r="E22" s="47" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F22" s="40"/>
       <c r="G22" s="40"/>
@@ -1815,7 +1831,7 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
       <c r="B23" s="40"/>
       <c r="C23" s="44"/>
@@ -1823,7 +1839,7 @@
         <v>6</v>
       </c>
       <c r="E23" s="47" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F23" s="40"/>
       <c r="G23" s="40"/>
@@ -1847,15 +1863,15 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B24" s="41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="45" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D24" s="19">
         <v>1</v>
@@ -1864,10 +1880,10 @@
         <v>13</v>
       </c>
       <c r="F24" s="41" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="G24" s="41" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="H24" s="18"/>
       <c r="I24" s="32" t="s">
@@ -1891,7 +1907,7 @@
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
     </row>
-    <row r="25" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="18"/>
       <c r="B25" s="41"/>
       <c r="C25" s="45"/>
@@ -1923,7 +1939,7 @@
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
     </row>
-    <row r="26" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="18"/>
       <c r="B26" s="41"/>
       <c r="C26" s="45"/>
@@ -1955,7 +1971,7 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
     </row>
-    <row r="27" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="18"/>
       <c r="B27" s="41"/>
       <c r="C27" s="45"/>
@@ -1963,7 +1979,7 @@
         <v>4</v>
       </c>
       <c r="E27" s="49" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F27" s="41"/>
       <c r="G27" s="41"/>
@@ -1987,7 +2003,7 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
     </row>
-    <row r="28" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="18"/>
       <c r="B28" s="41"/>
       <c r="C28" s="45"/>
@@ -1995,7 +2011,7 @@
         <v>5</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F28" s="41"/>
       <c r="G28" s="41"/>
@@ -2019,7 +2035,7 @@
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
     </row>
-    <row r="29" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="18"/>
       <c r="B29" s="41"/>
       <c r="C29" s="45"/>
@@ -2027,7 +2043,7 @@
         <v>6</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F29" s="41"/>
       <c r="G29" s="41"/>
@@ -2051,15 +2067,15 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
     </row>
-    <row r="30" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B30" s="40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C30" s="44" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D30" s="13">
         <v>1</v>
@@ -2068,17 +2084,17 @@
         <v>13</v>
       </c>
       <c r="F30" s="40" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="G30" s="40" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="H30" s="12"/>
-      <c r="I30" s="31" t="s">
+      <c r="I30" s="60" t="s">
         <v>2</v>
       </c>
       <c r="J30" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -2097,7 +2113,7 @@
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
     </row>
-    <row r="31" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12"/>
       <c r="B31" s="40"/>
       <c r="C31" s="44"/>
@@ -2129,7 +2145,7 @@
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
     </row>
-    <row r="32" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="12"/>
       <c r="B32" s="40"/>
       <c r="C32" s="44"/>
@@ -2161,7 +2177,7 @@
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
     </row>
-    <row r="33" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="12"/>
       <c r="B33" s="40"/>
       <c r="C33" s="44"/>
@@ -2169,7 +2185,7 @@
         <v>4</v>
       </c>
       <c r="E33" s="48" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F33" s="40"/>
       <c r="G33" s="40"/>
@@ -2193,7 +2209,7 @@
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
     </row>
-    <row r="34" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="12"/>
       <c r="B34" s="40"/>
       <c r="C34" s="44"/>
@@ -2201,7 +2217,7 @@
         <v>5</v>
       </c>
       <c r="E34" s="47" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F34" s="40"/>
       <c r="G34" s="40"/>
@@ -2225,7 +2241,7 @@
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
     </row>
-    <row r="35" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="12"/>
       <c r="B35" s="40"/>
       <c r="C35" s="44"/>
@@ -2233,7 +2249,7 @@
         <v>6</v>
       </c>
       <c r="E35" s="47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F35" s="40"/>
       <c r="G35" s="40"/>
@@ -2257,15 +2273,15 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
     </row>
-    <row r="36" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="18">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B36" s="41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C36" s="45" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D36" s="19">
         <v>1</v>
@@ -2274,10 +2290,10 @@
         <v>13</v>
       </c>
       <c r="F36" s="41" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="G36" s="41" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="H36" s="18"/>
       <c r="I36" s="32" t="s">
@@ -2301,7 +2317,7 @@
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
     </row>
-    <row r="37" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="18"/>
       <c r="B37" s="41"/>
       <c r="C37" s="45"/>
@@ -2333,7 +2349,7 @@
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
     </row>
-    <row r="38" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="18"/>
       <c r="B38" s="41"/>
       <c r="C38" s="45"/>
@@ -2365,7 +2381,7 @@
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
     </row>
-    <row r="39" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="18"/>
       <c r="B39" s="41"/>
       <c r="C39" s="45"/>
@@ -2373,7 +2389,7 @@
         <v>4</v>
       </c>
       <c r="E39" s="49" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F39" s="41"/>
       <c r="G39" s="41"/>
@@ -2397,7 +2413,7 @@
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
     </row>
-    <row r="40" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="18"/>
       <c r="B40" s="41"/>
       <c r="C40" s="45"/>
@@ -2405,7 +2421,7 @@
         <v>5</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F40" s="41"/>
       <c r="G40" s="41"/>
@@ -2429,7 +2445,7 @@
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
     </row>
-    <row r="41" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="18"/>
       <c r="B41" s="41"/>
       <c r="C41" s="45"/>
@@ -2437,7 +2453,7 @@
         <v>6</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F41" s="41"/>
       <c r="G41" s="41"/>
@@ -2461,15 +2477,15 @@
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
     </row>
-    <row r="42" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B42" s="40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C42" s="44" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D42" s="13">
         <v>1</v>
@@ -2478,17 +2494,17 @@
         <v>13</v>
       </c>
       <c r="F42" s="40" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="G42" s="40" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="H42" s="12"/>
-      <c r="I42" s="25" t="s">
+      <c r="I42" s="60" t="s">
         <v>2</v>
       </c>
       <c r="J42" s="26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -2507,7 +2523,7 @@
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
     </row>
-    <row r="43" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="12"/>
       <c r="B43" s="40"/>
       <c r="C43" s="44"/>
@@ -2539,7 +2555,7 @@
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
     </row>
-    <row r="44" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="12"/>
       <c r="B44" s="40"/>
       <c r="C44" s="44"/>
@@ -2571,7 +2587,7 @@
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
     </row>
-    <row r="45" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="12"/>
       <c r="B45" s="40"/>
       <c r="C45" s="44"/>
@@ -2579,7 +2595,7 @@
         <v>4</v>
       </c>
       <c r="E45" s="48" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F45" s="40"/>
       <c r="G45" s="40"/>
@@ -2603,7 +2619,7 @@
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
     </row>
-    <row r="46" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="12"/>
       <c r="B46" s="40"/>
       <c r="C46" s="44"/>
@@ -2611,7 +2627,7 @@
         <v>5</v>
       </c>
       <c r="E46" s="47" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F46" s="40"/>
       <c r="G46" s="40"/>
@@ -2635,7 +2651,7 @@
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
     </row>
-    <row r="47" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="12"/>
       <c r="B47" s="40"/>
       <c r="C47" s="44"/>
@@ -2643,7 +2659,7 @@
         <v>6</v>
       </c>
       <c r="E47" s="47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F47" s="40"/>
       <c r="G47" s="40"/>
@@ -2667,7 +2683,7 @@
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
     </row>
-    <row r="48" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="12"/>
       <c r="B48" s="40"/>
       <c r="C48" s="44"/>
@@ -2675,7 +2691,7 @@
         <v>7</v>
       </c>
       <c r="E48" s="47" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F48" s="40"/>
       <c r="G48" s="40"/>
@@ -2699,15 +2715,15 @@
       <c r="Y48" s="1"/>
       <c r="Z48" s="1"/>
     </row>
-    <row r="49" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="18">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B49" s="41" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="C49" s="45" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D49" s="19">
         <v>1</v>
@@ -2716,10 +2732,10 @@
         <v>13</v>
       </c>
       <c r="F49" s="41" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G49" s="41" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="H49" s="18"/>
       <c r="I49" s="32" t="s">
@@ -2743,7 +2759,7 @@
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
     </row>
-    <row r="50" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="18"/>
       <c r="B50" s="41"/>
       <c r="C50" s="45"/>
@@ -2775,7 +2791,7 @@
       <c r="Y50" s="1"/>
       <c r="Z50" s="1"/>
     </row>
-    <row r="51" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="18"/>
       <c r="B51" s="41"/>
       <c r="C51" s="45"/>
@@ -2807,7 +2823,7 @@
       <c r="Y51" s="1"/>
       <c r="Z51" s="1"/>
     </row>
-    <row r="52" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="18"/>
       <c r="B52" s="41"/>
       <c r="C52" s="45"/>
@@ -2815,7 +2831,7 @@
         <v>4</v>
       </c>
       <c r="E52" s="49" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F52" s="41"/>
       <c r="G52" s="41"/>
@@ -2839,7 +2855,7 @@
       <c r="Y52" s="1"/>
       <c r="Z52" s="1"/>
     </row>
-    <row r="53" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="18"/>
       <c r="B53" s="41"/>
       <c r="C53" s="45"/>
@@ -2847,7 +2863,7 @@
         <v>5</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F53" s="41"/>
       <c r="G53" s="41"/>
@@ -2871,7 +2887,7 @@
       <c r="Y53" s="1"/>
       <c r="Z53" s="1"/>
     </row>
-    <row r="54" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="18"/>
       <c r="B54" s="41"/>
       <c r="C54" s="45"/>
@@ -2879,7 +2895,7 @@
         <v>6</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F54" s="41"/>
       <c r="G54" s="41"/>
@@ -2903,7 +2919,7 @@
       <c r="Y54" s="1"/>
       <c r="Z54" s="1"/>
     </row>
-    <row r="55" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="18"/>
       <c r="B55" s="41"/>
       <c r="C55" s="45"/>
@@ -2911,7 +2927,7 @@
         <v>6</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="F55" s="41"/>
       <c r="G55" s="41"/>
@@ -2935,15 +2951,15 @@
       <c r="Y55" s="1"/>
       <c r="Z55" s="1"/>
     </row>
-    <row r="56" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B56" s="40" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C56" s="44" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D56" s="13">
         <v>1</v>
@@ -2952,10 +2968,10 @@
         <v>13</v>
       </c>
       <c r="F56" s="40" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="G56" s="40" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="H56" s="12"/>
       <c r="I56" s="31" t="s">
@@ -2979,7 +2995,7 @@
       <c r="Y56" s="1"/>
       <c r="Z56" s="1"/>
     </row>
-    <row r="57" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="12"/>
       <c r="B57" s="40"/>
       <c r="C57" s="44"/>
@@ -3011,7 +3027,7 @@
       <c r="Y57" s="1"/>
       <c r="Z57" s="1"/>
     </row>
-    <row r="58" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="12"/>
       <c r="B58" s="40"/>
       <c r="C58" s="44"/>
@@ -3043,7 +3059,7 @@
       <c r="Y58" s="1"/>
       <c r="Z58" s="1"/>
     </row>
-    <row r="59" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="12"/>
       <c r="B59" s="40"/>
       <c r="C59" s="44"/>
@@ -3051,7 +3067,7 @@
         <v>4</v>
       </c>
       <c r="E59" s="48" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F59" s="40"/>
       <c r="G59" s="40"/>
@@ -3075,7 +3091,7 @@
       <c r="Y59" s="1"/>
       <c r="Z59" s="1"/>
     </row>
-    <row r="60" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="12"/>
       <c r="B60" s="40"/>
       <c r="C60" s="44"/>
@@ -3083,7 +3099,7 @@
         <v>5</v>
       </c>
       <c r="E60" s="47" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F60" s="40"/>
       <c r="G60" s="40"/>
@@ -3107,7 +3123,7 @@
       <c r="Y60" s="1"/>
       <c r="Z60" s="1"/>
     </row>
-    <row r="61" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="12"/>
       <c r="B61" s="40"/>
       <c r="C61" s="44"/>
@@ -3115,7 +3131,7 @@
         <v>6</v>
       </c>
       <c r="E61" s="47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F61" s="40"/>
       <c r="G61" s="40"/>
@@ -3139,7 +3155,7 @@
       <c r="Y61" s="1"/>
       <c r="Z61" s="1"/>
     </row>
-    <row r="62" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="12"/>
       <c r="B62" s="40"/>
       <c r="C62" s="44"/>
@@ -3147,7 +3163,7 @@
         <v>7</v>
       </c>
       <c r="E62" s="47" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="F62" s="40"/>
       <c r="G62" s="40"/>
@@ -3171,7 +3187,7 @@
       <c r="Y62" s="1"/>
       <c r="Z62" s="1"/>
     </row>
-    <row r="63" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="12"/>
       <c r="B63" s="40"/>
       <c r="C63" s="44"/>
@@ -3179,7 +3195,7 @@
         <v>8</v>
       </c>
       <c r="E63" s="48" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F63" s="40"/>
       <c r="G63" s="40"/>
@@ -3203,34 +3219,34 @@
       <c r="Y63" s="1"/>
       <c r="Z63" s="1"/>
     </row>
-    <row r="64" spans="1:26" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:26" ht="91" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="24">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B64" s="55" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C64" s="55" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D64" s="56" t="s">
-        <v>46</v>
-      </c>
-      <c r="E64" s="57" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="E64" s="58" t="s">
+        <v>42</v>
       </c>
       <c r="F64" s="55" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G64" s="55" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="H64" s="55"/>
-      <c r="I64" s="58" t="s">
+      <c r="I64" s="57" t="s">
         <v>2</v>
       </c>
       <c r="J64" s="59" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
@@ -3249,15 +3265,15 @@
       <c r="Y64" s="1"/>
       <c r="Z64" s="1"/>
     </row>
-    <row r="65" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="12">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B65" s="40" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C65" s="40" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D65" s="13">
         <v>1</v>
@@ -3266,17 +3282,17 @@
         <v>13</v>
       </c>
       <c r="F65" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="G65" s="40" t="s">
         <v>50</v>
-      </c>
-      <c r="G65" s="40" t="s">
-        <v>57</v>
       </c>
       <c r="H65" s="12"/>
       <c r="I65" s="27" t="s">
         <v>2</v>
       </c>
       <c r="J65" s="26" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
@@ -3295,7 +3311,7 @@
       <c r="Y65" s="1"/>
       <c r="Z65" s="1"/>
     </row>
-    <row r="66" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="12"/>
       <c r="B66" s="40"/>
       <c r="C66" s="40"/>
@@ -3327,7 +3343,7 @@
       <c r="Y66" s="1"/>
       <c r="Z66" s="1"/>
     </row>
-    <row r="67" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="12"/>
       <c r="B67" s="40"/>
       <c r="C67" s="40"/>
@@ -3359,15 +3375,15 @@
       <c r="Y67" s="1"/>
       <c r="Z67" s="1"/>
     </row>
-    <row r="68" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:26" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="18">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B68" s="41" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C68" s="45" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D68" s="19">
         <v>1</v>
@@ -3376,17 +3392,17 @@
         <v>13</v>
       </c>
       <c r="F68" s="45" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G68" s="41" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="H68" s="23"/>
-      <c r="I68" s="20" t="s">
+      <c r="I68" s="61" t="s">
         <v>2</v>
       </c>
       <c r="J68" s="21" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
@@ -3405,7 +3421,7 @@
       <c r="Y68" s="1"/>
       <c r="Z68" s="1"/>
     </row>
-    <row r="69" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:26" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="18"/>
       <c r="B69" s="41"/>
       <c r="C69" s="45"/>
@@ -3437,7 +3453,7 @@
       <c r="Y69" s="1"/>
       <c r="Z69" s="1"/>
     </row>
-    <row r="70" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:26" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="18"/>
       <c r="B70" s="41"/>
       <c r="C70" s="45"/>
@@ -3469,7 +3485,7 @@
       <c r="Y70" s="1"/>
       <c r="Z70" s="1"/>
     </row>
-    <row r="71" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:26" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="18"/>
       <c r="B71" s="41"/>
       <c r="C71" s="45"/>
@@ -3501,7 +3517,7 @@
       <c r="Y71" s="1"/>
       <c r="Z71" s="1"/>
     </row>
-    <row r="72" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
       <c r="B72" s="1"/>
       <c r="C72" s="5"/>
@@ -3529,7 +3545,7 @@
       <c r="Y72" s="1"/>
       <c r="Z72" s="1"/>
     </row>
-    <row r="73" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4"/>
       <c r="B73" s="1"/>
       <c r="C73" s="5"/>
@@ -3557,7 +3573,7 @@
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
     </row>
-    <row r="74" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4"/>
       <c r="B74" s="1"/>
       <c r="C74" s="5"/>
@@ -3585,7 +3601,7 @@
       <c r="Y74" s="1"/>
       <c r="Z74" s="1"/>
     </row>
-    <row r="75" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="4"/>
       <c r="B75" s="1"/>
       <c r="C75" s="5"/>
@@ -3613,7 +3629,7 @@
       <c r="Y75" s="1"/>
       <c r="Z75" s="1"/>
     </row>
-    <row r="76" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4"/>
       <c r="B76" s="1"/>
       <c r="C76" s="5"/>
@@ -3641,7 +3657,7 @@
       <c r="Y76" s="1"/>
       <c r="Z76" s="1"/>
     </row>
-    <row r="77" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4"/>
       <c r="B77" s="1"/>
       <c r="C77" s="5"/>
@@ -3669,7 +3685,7 @@
       <c r="Y77" s="1"/>
       <c r="Z77" s="1"/>
     </row>
-    <row r="78" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4"/>
       <c r="B78" s="1"/>
       <c r="C78" s="5"/>
@@ -3697,7 +3713,7 @@
       <c r="Y78" s="1"/>
       <c r="Z78" s="1"/>
     </row>
-    <row r="79" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4"/>
       <c r="B79" s="1"/>
       <c r="C79" s="5"/>
@@ -3725,7 +3741,7 @@
       <c r="Y79" s="1"/>
       <c r="Z79" s="1"/>
     </row>
-    <row r="80" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4"/>
       <c r="B80" s="1"/>
       <c r="C80" s="5"/>
@@ -3753,7 +3769,7 @@
       <c r="Y80" s="1"/>
       <c r="Z80" s="1"/>
     </row>
-    <row r="81" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4"/>
       <c r="B81" s="1"/>
       <c r="C81" s="5"/>
@@ -3781,7 +3797,7 @@
       <c r="Y81" s="1"/>
       <c r="Z81" s="1"/>
     </row>
-    <row r="82" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4"/>
       <c r="B82" s="1"/>
       <c r="C82" s="5"/>
@@ -3809,7 +3825,7 @@
       <c r="Y82" s="1"/>
       <c r="Z82" s="1"/>
     </row>
-    <row r="83" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="4"/>
       <c r="B83" s="1"/>
       <c r="C83" s="5"/>
@@ -3837,7 +3853,7 @@
       <c r="Y83" s="1"/>
       <c r="Z83" s="1"/>
     </row>
-    <row r="84" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
       <c r="B84" s="1"/>
       <c r="C84" s="5"/>
@@ -3865,7 +3881,7 @@
       <c r="Y84" s="1"/>
       <c r="Z84" s="1"/>
     </row>
-    <row r="85" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4"/>
       <c r="B85" s="1"/>
       <c r="C85" s="5"/>
@@ -3893,7 +3909,7 @@
       <c r="Y85" s="1"/>
       <c r="Z85" s="1"/>
     </row>
-    <row r="86" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4"/>
       <c r="B86" s="1"/>
       <c r="C86" s="5"/>
@@ -3921,7 +3937,7 @@
       <c r="Y86" s="1"/>
       <c r="Z86" s="1"/>
     </row>
-    <row r="87" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4"/>
       <c r="B87" s="1"/>
       <c r="C87" s="5"/>
@@ -3949,7 +3965,7 @@
       <c r="Y87" s="1"/>
       <c r="Z87" s="1"/>
     </row>
-    <row r="88" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4"/>
       <c r="B88" s="1"/>
       <c r="C88" s="5"/>
@@ -3977,7 +3993,7 @@
       <c r="Y88" s="1"/>
       <c r="Z88" s="1"/>
     </row>
-    <row r="89" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="4"/>
       <c r="B89" s="1"/>
       <c r="C89" s="5"/>
@@ -4005,7 +4021,7 @@
       <c r="Y89" s="1"/>
       <c r="Z89" s="1"/>
     </row>
-    <row r="90" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="4"/>
       <c r="B90" s="1"/>
       <c r="C90" s="5"/>
@@ -4033,7 +4049,7 @@
       <c r="Y90" s="1"/>
       <c r="Z90" s="1"/>
     </row>
-    <row r="91" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="4"/>
       <c r="B91" s="1"/>
       <c r="C91" s="5"/>
@@ -4061,7 +4077,7 @@
       <c r="Y91" s="1"/>
       <c r="Z91" s="1"/>
     </row>
-    <row r="92" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="4"/>
       <c r="B92" s="1"/>
       <c r="C92" s="5"/>
@@ -4089,7 +4105,7 @@
       <c r="Y92" s="1"/>
       <c r="Z92" s="1"/>
     </row>
-    <row r="93" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="4"/>
       <c r="B93" s="1"/>
       <c r="C93" s="5"/>
@@ -4117,7 +4133,7 @@
       <c r="Y93" s="1"/>
       <c r="Z93" s="1"/>
     </row>
-    <row r="94" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="4"/>
       <c r="B94" s="1"/>
       <c r="C94" s="5"/>
@@ -4145,7 +4161,7 @@
       <c r="Y94" s="1"/>
       <c r="Z94" s="1"/>
     </row>
-    <row r="95" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="4"/>
       <c r="B95" s="1"/>
       <c r="C95" s="5"/>
@@ -4173,7 +4189,7 @@
       <c r="Y95" s="1"/>
       <c r="Z95" s="1"/>
     </row>
-    <row r="96" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="4"/>
       <c r="B96" s="1"/>
       <c r="C96" s="5"/>
@@ -4201,7 +4217,7 @@
       <c r="Y96" s="1"/>
       <c r="Z96" s="1"/>
     </row>
-    <row r="97" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="4"/>
       <c r="B97" s="1"/>
       <c r="C97" s="5"/>
@@ -4229,7 +4245,7 @@
       <c r="Y97" s="1"/>
       <c r="Z97" s="1"/>
     </row>
-    <row r="98" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="4"/>
       <c r="B98" s="1"/>
       <c r="C98" s="5"/>
@@ -4257,7 +4273,7 @@
       <c r="Y98" s="1"/>
       <c r="Z98" s="1"/>
     </row>
-    <row r="99" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="4"/>
       <c r="B99" s="1"/>
       <c r="C99" s="5"/>
@@ -4285,7 +4301,7 @@
       <c r="Y99" s="1"/>
       <c r="Z99" s="1"/>
     </row>
-    <row r="100" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="4"/>
       <c r="B100" s="1"/>
       <c r="C100" s="5"/>
@@ -4313,7 +4329,7 @@
       <c r="Y100" s="1"/>
       <c r="Z100" s="1"/>
     </row>
-    <row r="101" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="4"/>
       <c r="B101" s="1"/>
       <c r="C101" s="5"/>
@@ -4341,7 +4357,7 @@
       <c r="Y101" s="1"/>
       <c r="Z101" s="1"/>
     </row>
-    <row r="102" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="4"/>
       <c r="B102" s="1"/>
       <c r="C102" s="5"/>
@@ -4369,7 +4385,7 @@
       <c r="Y102" s="1"/>
       <c r="Z102" s="1"/>
     </row>
-    <row r="103" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="4"/>
       <c r="B103" s="1"/>
       <c r="C103" s="5"/>
@@ -4397,7 +4413,7 @@
       <c r="Y103" s="1"/>
       <c r="Z103" s="1"/>
     </row>
-    <row r="104" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="4"/>
       <c r="B104" s="1"/>
       <c r="C104" s="5"/>
@@ -4425,7 +4441,7 @@
       <c r="Y104" s="1"/>
       <c r="Z104" s="1"/>
     </row>
-    <row r="105" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="4"/>
       <c r="B105" s="1"/>
       <c r="C105" s="5"/>
@@ -4453,7 +4469,7 @@
       <c r="Y105" s="1"/>
       <c r="Z105" s="1"/>
     </row>
-    <row r="106" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="4"/>
       <c r="B106" s="1"/>
       <c r="C106" s="5"/>
@@ -4481,7 +4497,7 @@
       <c r="Y106" s="1"/>
       <c r="Z106" s="1"/>
     </row>
-    <row r="107" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="4"/>
       <c r="B107" s="1"/>
       <c r="C107" s="5"/>
@@ -4509,7 +4525,7 @@
       <c r="Y107" s="1"/>
       <c r="Z107" s="1"/>
     </row>
-    <row r="108" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="4"/>
       <c r="B108" s="1"/>
       <c r="C108" s="5"/>
@@ -4537,7 +4553,7 @@
       <c r="Y108" s="1"/>
       <c r="Z108" s="1"/>
     </row>
-    <row r="109" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="4"/>
       <c r="B109" s="1"/>
       <c r="C109" s="5"/>
@@ -4565,7 +4581,7 @@
       <c r="Y109" s="1"/>
       <c r="Z109" s="1"/>
     </row>
-    <row r="110" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="4"/>
       <c r="B110" s="1"/>
       <c r="C110" s="5"/>
@@ -4593,7 +4609,7 @@
       <c r="Y110" s="1"/>
       <c r="Z110" s="1"/>
     </row>
-    <row r="111" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="4"/>
       <c r="B111" s="1"/>
       <c r="C111" s="5"/>
@@ -4621,7 +4637,7 @@
       <c r="Y111" s="1"/>
       <c r="Z111" s="1"/>
     </row>
-    <row r="112" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="4"/>
       <c r="B112" s="1"/>
       <c r="C112" s="5"/>
@@ -4649,7 +4665,7 @@
       <c r="Y112" s="1"/>
       <c r="Z112" s="1"/>
     </row>
-    <row r="113" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="4"/>
       <c r="B113" s="1"/>
       <c r="C113" s="5"/>
@@ -4677,7 +4693,7 @@
       <c r="Y113" s="1"/>
       <c r="Z113" s="1"/>
     </row>
-    <row r="114" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="4"/>
       <c r="B114" s="1"/>
       <c r="C114" s="5"/>
@@ -4705,7 +4721,7 @@
       <c r="Y114" s="1"/>
       <c r="Z114" s="1"/>
     </row>
-    <row r="115" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="4"/>
       <c r="B115" s="1"/>
       <c r="C115" s="5"/>
@@ -4733,7 +4749,7 @@
       <c r="Y115" s="1"/>
       <c r="Z115" s="1"/>
     </row>
-    <row r="116" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="4"/>
       <c r="B116" s="1"/>
       <c r="C116" s="5"/>
@@ -4761,7 +4777,7 @@
       <c r="Y116" s="1"/>
       <c r="Z116" s="1"/>
     </row>
-    <row r="117" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="4"/>
       <c r="B117" s="1"/>
       <c r="C117" s="5"/>
@@ -4789,7 +4805,7 @@
       <c r="Y117" s="1"/>
       <c r="Z117" s="1"/>
     </row>
-    <row r="118" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="4"/>
       <c r="B118" s="1"/>
       <c r="C118" s="5"/>
@@ -4817,7 +4833,7 @@
       <c r="Y118" s="1"/>
       <c r="Z118" s="1"/>
     </row>
-    <row r="119" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="4"/>
       <c r="B119" s="1"/>
       <c r="C119" s="5"/>
@@ -4845,7 +4861,7 @@
       <c r="Y119" s="1"/>
       <c r="Z119" s="1"/>
     </row>
-    <row r="120" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="4"/>
       <c r="B120" s="1"/>
       <c r="C120" s="5"/>
@@ -4873,7 +4889,7 @@
       <c r="Y120" s="1"/>
       <c r="Z120" s="1"/>
     </row>
-    <row r="121" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="4"/>
       <c r="B121" s="1"/>
       <c r="C121" s="5"/>
@@ -4901,7 +4917,7 @@
       <c r="Y121" s="1"/>
       <c r="Z121" s="1"/>
     </row>
-    <row r="122" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="4"/>
       <c r="B122" s="1"/>
       <c r="C122" s="5"/>
@@ -4929,7 +4945,7 @@
       <c r="Y122" s="1"/>
       <c r="Z122" s="1"/>
     </row>
-    <row r="123" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="4"/>
       <c r="B123" s="1"/>
       <c r="C123" s="5"/>
@@ -4957,7 +4973,7 @@
       <c r="Y123" s="1"/>
       <c r="Z123" s="1"/>
     </row>
-    <row r="124" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="4"/>
       <c r="B124" s="1"/>
       <c r="C124" s="5"/>
@@ -4985,7 +5001,7 @@
       <c r="Y124" s="1"/>
       <c r="Z124" s="1"/>
     </row>
-    <row r="125" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="4"/>
       <c r="B125" s="1"/>
       <c r="C125" s="5"/>
@@ -5013,7 +5029,7 @@
       <c r="Y125" s="1"/>
       <c r="Z125" s="1"/>
     </row>
-    <row r="126" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="4"/>
       <c r="B126" s="1"/>
       <c r="C126" s="5"/>
@@ -5041,7 +5057,7 @@
       <c r="Y126" s="1"/>
       <c r="Z126" s="1"/>
     </row>
-    <row r="127" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="4"/>
       <c r="B127" s="1"/>
       <c r="C127" s="5"/>
@@ -5069,7 +5085,7 @@
       <c r="Y127" s="1"/>
       <c r="Z127" s="1"/>
     </row>
-    <row r="128" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="4"/>
       <c r="B128" s="1"/>
       <c r="C128" s="5"/>
@@ -5097,7 +5113,7 @@
       <c r="Y128" s="1"/>
       <c r="Z128" s="1"/>
     </row>
-    <row r="129" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="4"/>
       <c r="B129" s="1"/>
       <c r="C129" s="5"/>
@@ -5125,7 +5141,7 @@
       <c r="Y129" s="1"/>
       <c r="Z129" s="1"/>
     </row>
-    <row r="130" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="4"/>
       <c r="B130" s="1"/>
       <c r="C130" s="5"/>
@@ -5153,7 +5169,7 @@
       <c r="Y130" s="1"/>
       <c r="Z130" s="1"/>
     </row>
-    <row r="131" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="4"/>
       <c r="B131" s="1"/>
       <c r="C131" s="5"/>
@@ -5181,7 +5197,7 @@
       <c r="Y131" s="1"/>
       <c r="Z131" s="1"/>
     </row>
-    <row r="132" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="4"/>
       <c r="B132" s="1"/>
       <c r="C132" s="5"/>
@@ -5209,7 +5225,7 @@
       <c r="Y132" s="1"/>
       <c r="Z132" s="1"/>
     </row>
-    <row r="133" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="4"/>
       <c r="B133" s="1"/>
       <c r="C133" s="5"/>
@@ -5237,7 +5253,7 @@
       <c r="Y133" s="1"/>
       <c r="Z133" s="1"/>
     </row>
-    <row r="134" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="4"/>
       <c r="B134" s="1"/>
       <c r="C134" s="5"/>
@@ -5265,7 +5281,7 @@
       <c r="Y134" s="1"/>
       <c r="Z134" s="1"/>
     </row>
-    <row r="135" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="4"/>
       <c r="B135" s="1"/>
       <c r="C135" s="5"/>
@@ -5293,7 +5309,7 @@
       <c r="Y135" s="1"/>
       <c r="Z135" s="1"/>
     </row>
-    <row r="136" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="4"/>
       <c r="B136" s="1"/>
       <c r="C136" s="5"/>
@@ -5321,7 +5337,7 @@
       <c r="Y136" s="1"/>
       <c r="Z136" s="1"/>
     </row>
-    <row r="137" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="4"/>
       <c r="B137" s="1"/>
       <c r="C137" s="5"/>
@@ -5349,7 +5365,7 @@
       <c r="Y137" s="1"/>
       <c r="Z137" s="1"/>
     </row>
-    <row r="138" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="4"/>
       <c r="B138" s="1"/>
       <c r="C138" s="5"/>
@@ -5377,7 +5393,7 @@
       <c r="Y138" s="1"/>
       <c r="Z138" s="1"/>
     </row>
-    <row r="139" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="4"/>
       <c r="B139" s="1"/>
       <c r="C139" s="5"/>
@@ -5405,7 +5421,7 @@
       <c r="Y139" s="1"/>
       <c r="Z139" s="1"/>
     </row>
-    <row r="140" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="4"/>
       <c r="B140" s="1"/>
       <c r="C140" s="5"/>
@@ -5433,7 +5449,7 @@
       <c r="Y140" s="1"/>
       <c r="Z140" s="1"/>
     </row>
-    <row r="141" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="4"/>
       <c r="B141" s="1"/>
       <c r="C141" s="5"/>
@@ -5461,7 +5477,7 @@
       <c r="Y141" s="1"/>
       <c r="Z141" s="1"/>
     </row>
-    <row r="142" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="4"/>
       <c r="B142" s="1"/>
       <c r="C142" s="5"/>
@@ -5489,7 +5505,7 @@
       <c r="Y142" s="1"/>
       <c r="Z142" s="1"/>
     </row>
-    <row r="143" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="4"/>
       <c r="B143" s="1"/>
       <c r="C143" s="5"/>
@@ -5517,7 +5533,7 @@
       <c r="Y143" s="1"/>
       <c r="Z143" s="1"/>
     </row>
-    <row r="144" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="4"/>
       <c r="B144" s="1"/>
       <c r="C144" s="5"/>
@@ -5545,7 +5561,7 @@
       <c r="Y144" s="1"/>
       <c r="Z144" s="1"/>
     </row>
-    <row r="145" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="4"/>
       <c r="B145" s="1"/>
       <c r="C145" s="5"/>
@@ -5573,7 +5589,7 @@
       <c r="Y145" s="1"/>
       <c r="Z145" s="1"/>
     </row>
-    <row r="146" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="4"/>
       <c r="B146" s="1"/>
       <c r="C146" s="5"/>
@@ -5601,7 +5617,7 @@
       <c r="Y146" s="1"/>
       <c r="Z146" s="1"/>
     </row>
-    <row r="147" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="4"/>
       <c r="B147" s="1"/>
       <c r="C147" s="5"/>
@@ -5629,7 +5645,7 @@
       <c r="Y147" s="1"/>
       <c r="Z147" s="1"/>
     </row>
-    <row r="148" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="4"/>
       <c r="B148" s="1"/>
       <c r="C148" s="5"/>
@@ -5657,7 +5673,7 @@
       <c r="Y148" s="1"/>
       <c r="Z148" s="1"/>
     </row>
-    <row r="149" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="4"/>
       <c r="B149" s="1"/>
       <c r="C149" s="5"/>
@@ -5685,7 +5701,7 @@
       <c r="Y149" s="1"/>
       <c r="Z149" s="1"/>
     </row>
-    <row r="150" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="4"/>
       <c r="B150" s="1"/>
       <c r="C150" s="5"/>
@@ -5713,7 +5729,7 @@
       <c r="Y150" s="1"/>
       <c r="Z150" s="1"/>
     </row>
-    <row r="151" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="4"/>
       <c r="B151" s="1"/>
       <c r="C151" s="5"/>
@@ -5741,7 +5757,7 @@
       <c r="Y151" s="1"/>
       <c r="Z151" s="1"/>
     </row>
-    <row r="152" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="4"/>
       <c r="B152" s="1"/>
       <c r="C152" s="5"/>
@@ -5769,7 +5785,7 @@
       <c r="Y152" s="1"/>
       <c r="Z152" s="1"/>
     </row>
-    <row r="153" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="4"/>
       <c r="B153" s="1"/>
       <c r="C153" s="5"/>
@@ -5797,7 +5813,7 @@
       <c r="Y153" s="1"/>
       <c r="Z153" s="1"/>
     </row>
-    <row r="154" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="4"/>
       <c r="B154" s="1"/>
       <c r="C154" s="5"/>
@@ -5825,7 +5841,7 @@
       <c r="Y154" s="1"/>
       <c r="Z154" s="1"/>
     </row>
-    <row r="155" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="4"/>
       <c r="B155" s="1"/>
       <c r="C155" s="5"/>
@@ -5853,7 +5869,7 @@
       <c r="Y155" s="1"/>
       <c r="Z155" s="1"/>
     </row>
-    <row r="156" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="4"/>
       <c r="B156" s="1"/>
       <c r="C156" s="5"/>
@@ -5881,7 +5897,7 @@
       <c r="Y156" s="1"/>
       <c r="Z156" s="1"/>
     </row>
-    <row r="157" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="4"/>
       <c r="B157" s="1"/>
       <c r="C157" s="5"/>
@@ -5909,7 +5925,7 @@
       <c r="Y157" s="1"/>
       <c r="Z157" s="1"/>
     </row>
-    <row r="158" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="4"/>
       <c r="B158" s="1"/>
       <c r="C158" s="5"/>
@@ -5937,7 +5953,7 @@
       <c r="Y158" s="1"/>
       <c r="Z158" s="1"/>
     </row>
-    <row r="159" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="4"/>
       <c r="B159" s="1"/>
       <c r="C159" s="5"/>
@@ -5965,7 +5981,7 @@
       <c r="Y159" s="1"/>
       <c r="Z159" s="1"/>
     </row>
-    <row r="160" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="4"/>
       <c r="B160" s="1"/>
       <c r="C160" s="5"/>
@@ -5993,7 +6009,7 @@
       <c r="Y160" s="1"/>
       <c r="Z160" s="1"/>
     </row>
-    <row r="161" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="4"/>
       <c r="B161" s="1"/>
       <c r="C161" s="5"/>
@@ -6021,7 +6037,7 @@
       <c r="Y161" s="1"/>
       <c r="Z161" s="1"/>
     </row>
-    <row r="162" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="4"/>
       <c r="B162" s="1"/>
       <c r="C162" s="5"/>
@@ -6049,7 +6065,7 @@
       <c r="Y162" s="1"/>
       <c r="Z162" s="1"/>
     </row>
-    <row r="163" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="4"/>
       <c r="B163" s="1"/>
       <c r="C163" s="5"/>
@@ -6077,7 +6093,7 @@
       <c r="Y163" s="1"/>
       <c r="Z163" s="1"/>
     </row>
-    <row r="164" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="4"/>
       <c r="B164" s="1"/>
       <c r="C164" s="5"/>
@@ -6105,7 +6121,7 @@
       <c r="Y164" s="1"/>
       <c r="Z164" s="1"/>
     </row>
-    <row r="165" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="4"/>
       <c r="B165" s="1"/>
       <c r="C165" s="5"/>
@@ -6133,7 +6149,7 @@
       <c r="Y165" s="1"/>
       <c r="Z165" s="1"/>
     </row>
-    <row r="166" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="4"/>
       <c r="B166" s="1"/>
       <c r="C166" s="5"/>
@@ -6161,7 +6177,7 @@
       <c r="Y166" s="1"/>
       <c r="Z166" s="1"/>
     </row>
-    <row r="167" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="4"/>
       <c r="B167" s="1"/>
       <c r="C167" s="5"/>
@@ -6189,7 +6205,7 @@
       <c r="Y167" s="1"/>
       <c r="Z167" s="1"/>
     </row>
-    <row r="168" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="4"/>
       <c r="B168" s="1"/>
       <c r="C168" s="5"/>
@@ -6217,7 +6233,7 @@
       <c r="Y168" s="1"/>
       <c r="Z168" s="1"/>
     </row>
-    <row r="169" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="4"/>
       <c r="B169" s="1"/>
       <c r="C169" s="5"/>
@@ -6245,7 +6261,7 @@
       <c r="Y169" s="1"/>
       <c r="Z169" s="1"/>
     </row>
-    <row r="170" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="4"/>
       <c r="B170" s="1"/>
       <c r="C170" s="5"/>
@@ -6273,7 +6289,7 @@
       <c r="Y170" s="1"/>
       <c r="Z170" s="1"/>
     </row>
-    <row r="171" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="4"/>
       <c r="B171" s="1"/>
       <c r="C171" s="5"/>
@@ -6301,7 +6317,7 @@
       <c r="Y171" s="1"/>
       <c r="Z171" s="1"/>
     </row>
-    <row r="172" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="4"/>
       <c r="B172" s="1"/>
       <c r="C172" s="5"/>
@@ -6329,7 +6345,7 @@
       <c r="Y172" s="1"/>
       <c r="Z172" s="1"/>
     </row>
-    <row r="173" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="4"/>
       <c r="B173" s="1"/>
       <c r="C173" s="5"/>
@@ -6357,7 +6373,7 @@
       <c r="Y173" s="1"/>
       <c r="Z173" s="1"/>
     </row>
-    <row r="174" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="4"/>
       <c r="B174" s="1"/>
       <c r="C174" s="5"/>
@@ -6385,7 +6401,7 @@
       <c r="Y174" s="1"/>
       <c r="Z174" s="1"/>
     </row>
-    <row r="175" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="4"/>
       <c r="B175" s="1"/>
       <c r="C175" s="5"/>
@@ -6413,7 +6429,7 @@
       <c r="Y175" s="1"/>
       <c r="Z175" s="1"/>
     </row>
-    <row r="176" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="4"/>
       <c r="B176" s="1"/>
       <c r="C176" s="5"/>
@@ -6441,7 +6457,7 @@
       <c r="Y176" s="1"/>
       <c r="Z176" s="1"/>
     </row>
-    <row r="177" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="4"/>
       <c r="B177" s="1"/>
       <c r="C177" s="5"/>
@@ -6469,7 +6485,7 @@
       <c r="Y177" s="1"/>
       <c r="Z177" s="1"/>
     </row>
-    <row r="178" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="4"/>
       <c r="B178" s="1"/>
       <c r="C178" s="5"/>
@@ -6497,7 +6513,7 @@
       <c r="Y178" s="1"/>
       <c r="Z178" s="1"/>
     </row>
-    <row r="179" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="4"/>
       <c r="B179" s="1"/>
       <c r="C179" s="5"/>
@@ -6525,7 +6541,7 @@
       <c r="Y179" s="1"/>
       <c r="Z179" s="1"/>
     </row>
-    <row r="180" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="4"/>
       <c r="B180" s="1"/>
       <c r="C180" s="5"/>
@@ -6553,7 +6569,7 @@
       <c r="Y180" s="1"/>
       <c r="Z180" s="1"/>
     </row>
-    <row r="181" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="4"/>
       <c r="B181" s="1"/>
       <c r="C181" s="5"/>
@@ -6581,7 +6597,7 @@
       <c r="Y181" s="1"/>
       <c r="Z181" s="1"/>
     </row>
-    <row r="182" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="4"/>
       <c r="B182" s="1"/>
       <c r="C182" s="5"/>
@@ -6609,7 +6625,7 @@
       <c r="Y182" s="1"/>
       <c r="Z182" s="1"/>
     </row>
-    <row r="183" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="4"/>
       <c r="B183" s="1"/>
       <c r="C183" s="5"/>
@@ -6637,7 +6653,7 @@
       <c r="Y183" s="1"/>
       <c r="Z183" s="1"/>
     </row>
-    <row r="184" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="4"/>
       <c r="B184" s="1"/>
       <c r="C184" s="5"/>
@@ -6665,7 +6681,7 @@
       <c r="Y184" s="1"/>
       <c r="Z184" s="1"/>
     </row>
-    <row r="185" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="4"/>
       <c r="B185" s="1"/>
       <c r="C185" s="5"/>
@@ -6693,7 +6709,7 @@
       <c r="Y185" s="1"/>
       <c r="Z185" s="1"/>
     </row>
-    <row r="186" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="4"/>
       <c r="B186" s="1"/>
       <c r="C186" s="5"/>
@@ -6721,7 +6737,7 @@
       <c r="Y186" s="1"/>
       <c r="Z186" s="1"/>
     </row>
-    <row r="187" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="4"/>
       <c r="B187" s="1"/>
       <c r="C187" s="5"/>
@@ -6749,7 +6765,7 @@
       <c r="Y187" s="1"/>
       <c r="Z187" s="1"/>
     </row>
-    <row r="188" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="4"/>
       <c r="B188" s="1"/>
       <c r="C188" s="5"/>
@@ -6777,7 +6793,7 @@
       <c r="Y188" s="1"/>
       <c r="Z188" s="1"/>
     </row>
-    <row r="189" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="4"/>
       <c r="B189" s="1"/>
       <c r="C189" s="5"/>
@@ -6805,7 +6821,7 @@
       <c r="Y189" s="1"/>
       <c r="Z189" s="1"/>
     </row>
-    <row r="190" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="4"/>
       <c r="B190" s="1"/>
       <c r="C190" s="5"/>
@@ -6833,7 +6849,7 @@
       <c r="Y190" s="1"/>
       <c r="Z190" s="1"/>
     </row>
-    <row r="191" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="4"/>
       <c r="B191" s="1"/>
       <c r="C191" s="5"/>
@@ -6861,7 +6877,7 @@
       <c r="Y191" s="1"/>
       <c r="Z191" s="1"/>
     </row>
-    <row r="192" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="4"/>
       <c r="B192" s="1"/>
       <c r="C192" s="5"/>
@@ -6889,7 +6905,7 @@
       <c r="Y192" s="1"/>
       <c r="Z192" s="1"/>
     </row>
-    <row r="193" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="4"/>
       <c r="B193" s="1"/>
       <c r="C193" s="5"/>
@@ -6917,7 +6933,7 @@
       <c r="Y193" s="1"/>
       <c r="Z193" s="1"/>
     </row>
-    <row r="194" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="4"/>
       <c r="B194" s="1"/>
       <c r="C194" s="5"/>
@@ -6945,7 +6961,7 @@
       <c r="Y194" s="1"/>
       <c r="Z194" s="1"/>
     </row>
-    <row r="195" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="4"/>
       <c r="B195" s="1"/>
       <c r="C195" s="5"/>
@@ -6973,7 +6989,7 @@
       <c r="Y195" s="1"/>
       <c r="Z195" s="1"/>
     </row>
-    <row r="196" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="4"/>
       <c r="B196" s="1"/>
       <c r="C196" s="5"/>
@@ -7001,7 +7017,7 @@
       <c r="Y196" s="1"/>
       <c r="Z196" s="1"/>
     </row>
-    <row r="197" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="4"/>
       <c r="B197" s="1"/>
       <c r="C197" s="5"/>
@@ -7029,7 +7045,7 @@
       <c r="Y197" s="1"/>
       <c r="Z197" s="1"/>
     </row>
-    <row r="198" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="4"/>
       <c r="B198" s="1"/>
       <c r="C198" s="5"/>
@@ -7057,7 +7073,7 @@
       <c r="Y198" s="1"/>
       <c r="Z198" s="1"/>
     </row>
-    <row r="199" spans="1:26" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="4"/>
       <c r="B199" s="1"/>
       <c r="C199" s="5"/>
